--- a/biology/Médecine/Campagne_de_vaccination_contre_la_Covid-19_au_Burkina_Faso/Campagne_de_vaccination_contre_la_Covid-19_au_Burkina_Faso.xlsx
+++ b/biology/Médecine/Campagne_de_vaccination_contre_la_Covid-19_au_Burkina_Faso/Campagne_de_vaccination_contre_la_Covid-19_au_Burkina_Faso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Campagne de vaccination contre la Covid-19 au Burkina Faso est lancée officiellement le mercredi 2 juin[1] 2021 au centre médical urbain (CMU) du secteur 52 de Ouagadougou où le ministre de la Santé Charlemagne Charlemagne Ouédraogo et d'autres membres du gouvernement ont été les premiers à se faire vaccinier[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Campagne de vaccination contre la Covid-19 au Burkina Faso est lancée officiellement le mercredi 2 juin 2021 au centre médical urbain (CMU) du secteur 52 de Ouagadougou où le ministre de la Santé Charlemagne Charlemagne Ouédraogo et d'autres membres du gouvernement ont été les premiers à se faire vaccinier.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique de la campagne de vaccination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Burkina Faso a été le dernier pays de la région ouest-africaine à recevoir ses premières doses de vaccins contre la Covid-19. </t>
@@ -542,9 +556,11 @@
           <t>Critères de la première phase de vaccination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières dose du vaccin contre la Covid-19 sont arrivés au Burkina Faso le 30 mai 2021. Il s'avisait de 115 000[3] doses l'Astra-Zeneca. Mais avant le ministère chargé de la santé avant engagé plusieurs actions de sensibilisations auprès des populations. L'une des critères de la vaccination est son caractère volontaire. La cible prioritaire sont les professionnels de la santé, les personnes vivants avec des comorbidités, les pèlerins, le personnel travaillant dans les ONGs, etc. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières dose du vaccin contre la Covid-19 sont arrivés au Burkina Faso le 30 mai 2021. Il s'avisait de 115 000 doses l'Astra-Zeneca. Mais avant le ministère chargé de la santé avant engagé plusieurs actions de sensibilisations auprès des populations. L'une des critères de la vaccination est son caractère volontaire. La cible prioritaire sont les professionnels de la santé, les personnes vivants avec des comorbidités, les pèlerins, le personnel travaillant dans les ONGs, etc. 
 </t>
         </is>
       </c>
